--- a/artfynd/A 58504-2018.xlsx
+++ b/artfynd/A 58504-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2999289</v>
+        <v>94011938</v>
       </c>
       <c r="B2" t="n">
-        <v>96319</v>
+        <v>98520</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>219799</v>
+        <v>222498</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>06J1A05, Gtl</t>
+          <t>Ygne-Hemse, Gtl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>698621.4564279296</v>
+        <v>698779.9316287825</v>
       </c>
       <c r="R2" t="n">
-        <v>6356902.266207782</v>
+        <v>6356965.133827931</v>
       </c>
       <c r="S2" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2007-09-05</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,11 +768,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
-        </is>
-      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -781,35 +776,30 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
-      </c>
-      <c r="AH2" t="inlineStr">
-        <is>
-          <t>Rikkärr</t>
-        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Britta Johansson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Magnus Martinsson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Ecogain</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5168355</v>
+        <v>94011937</v>
       </c>
       <c r="B3" t="n">
-        <v>97335</v>
+        <v>98520</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -822,37 +812,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222662</v>
+        <v>222498</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Axag</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Schoenus ferrugineus</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>06J1A05, Gtl</t>
+          <t>Ygne-Hemse, Gtl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>698621.4564279296</v>
+        <v>698786.3346319427</v>
       </c>
       <c r="R3" t="n">
-        <v>6356902.266207782</v>
+        <v>6356944.887886292</v>
       </c>
       <c r="S3" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -876,7 +866,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -886,7 +876,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2007-09-05</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -894,11 +884,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
-        </is>
-      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -907,35 +892,30 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AH3" t="inlineStr">
-        <is>
-          <t>Rikkärr</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Britta Johansson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Magnus Martinsson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Ecogain</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2289844</v>
+        <v>94011889</v>
       </c>
       <c r="B4" t="n">
-        <v>96336</v>
+        <v>56887</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -944,41 +924,46 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>219811</v>
+        <v>102995</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>06J1A05, Gtl</t>
+          <t>Ygne-Hemse, Gtl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>698621.4564279296</v>
+        <v>698742.6195520113</v>
       </c>
       <c r="R4" t="n">
-        <v>6356902.266207782</v>
+        <v>6356963.322957435</v>
       </c>
       <c r="S4" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1002,7 +987,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1012,7 +997,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2007-09-05</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1020,11 +1005,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC4" t="inlineStr">
-        <is>
-          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
-        </is>
-      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1033,35 +1013,30 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t>Rikkärr</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Britta Johansson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Magnus Martinsson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Ecogain</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4095111</v>
+        <v>2999289</v>
       </c>
       <c r="B5" t="n">
-        <v>95990</v>
+        <v>96319</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1074,21 +1049,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>221930</v>
+        <v>219799</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kärrlilja</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Tofieldia calyculata</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Wahlenb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1184,10 +1159,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>3704166</v>
+        <v>5168355</v>
       </c>
       <c r="B6" t="n">
-        <v>103164</v>
+        <v>97335</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1196,20 +1171,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>221137</v>
+        <v>222662</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Majviva</t>
+          <t>Axag</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Primula farinosa</t>
+          <t>Schoenus ferrugineus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1310,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>94011938</v>
+        <v>2289844</v>
       </c>
       <c r="B7" t="n">
-        <v>98520</v>
+        <v>96336</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1326,37 +1301,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>222498</v>
+        <v>219811</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Ygne-Hemse, Gtl</t>
+          <t>06J1A05, Gtl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>698779.9316287825</v>
+        <v>698621.4564279296</v>
       </c>
       <c r="R7" t="n">
-        <v>6356965.133827931</v>
+        <v>6356902.266207782</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1380,7 +1355,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1390,7 +1365,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1398,6 +1373,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
+        </is>
+      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1406,30 +1386,35 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>Rikkärr</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Britta Johansson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Magnus Martinsson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>Ecogain</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>94011937</v>
+        <v>4095111</v>
       </c>
       <c r="B8" t="n">
-        <v>98520</v>
+        <v>95990</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1442,37 +1427,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>222498</v>
+        <v>221930</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kärrlilja</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Tofieldia calyculata</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Wahlenb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Ygne-Hemse, Gtl</t>
+          <t>06J1A05, Gtl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698786.3346319427</v>
+        <v>698621.4564279296</v>
       </c>
       <c r="R8" t="n">
-        <v>6356944.887886292</v>
+        <v>6356902.266207782</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1496,7 +1481,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1506,7 +1491,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1514,6 +1499,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
+        </is>
+      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1522,30 +1512,35 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AH8" t="inlineStr">
+        <is>
+          <t>Rikkärr</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Britta Johansson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Magnus Martinsson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>Ecogain</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>94011889</v>
+        <v>3704166</v>
       </c>
       <c r="B9" t="n">
-        <v>56887</v>
+        <v>103164</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1558,42 +1553,37 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>102995</v>
+        <v>221137</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Majviva</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Primula farinosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Ygne-Hemse, Gtl</t>
+          <t>06J1A05, Gtl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>698742.6195520113</v>
+        <v>698621.4564279296</v>
       </c>
       <c r="R9" t="n">
-        <v>6356963.322957435</v>
+        <v>6356902.266207782</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1617,7 +1607,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1627,7 +1617,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1635,6 +1625,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
+        </is>
+      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1643,21 +1638,26 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AH9" t="inlineStr">
+        <is>
+          <t>Rikkärr</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Britta Johansson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Magnus Martinsson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>Ecogain</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>

--- a/artfynd/A 58504-2018.xlsx
+++ b/artfynd/A 58504-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94011938</v>
+        <v>2999289</v>
       </c>
       <c r="B2" t="n">
-        <v>98520</v>
+        <v>96319</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>222498</v>
+        <v>219799</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Kärrknipprot</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Epipactis palustris</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>(L.) Crantz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Ygne-Hemse, Gtl</t>
+          <t>06J1A05, Gtl</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>698779.9316287825</v>
+        <v>698621.4564279296</v>
       </c>
       <c r="R2" t="n">
-        <v>6356965.133827931</v>
+        <v>6356902.266207782</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -750,7 +750,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -760,7 +760,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -768,6 +768,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
+        </is>
+      </c>
       <c r="AD2" t="b">
         <v>0</v>
       </c>
@@ -776,30 +781,35 @@
       </c>
       <c r="AG2" t="b">
         <v>0</v>
+      </c>
+      <c r="AH2" t="inlineStr">
+        <is>
+          <t>Rikkärr</t>
+        </is>
       </c>
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Britta Johansson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Magnus Martinsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Ecogain</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94011937</v>
+        <v>5168355</v>
       </c>
       <c r="B3" t="n">
-        <v>98520</v>
+        <v>97335</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,37 +822,37 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>222498</v>
+        <v>222662</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Axag</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Hepatica nobilis</t>
+          <t>Schoenus ferrugineus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Schreb.</t>
+          <t>L.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Ygne-Hemse, Gtl</t>
+          <t>06J1A05, Gtl</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>698786.3346319427</v>
+        <v>698621.4564279296</v>
       </c>
       <c r="R3" t="n">
-        <v>6356944.887886292</v>
+        <v>6356902.266207782</v>
       </c>
       <c r="S3" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
@@ -866,7 +876,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
@@ -876,7 +886,7 @@
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="AB3" t="inlineStr">
@@ -884,6 +894,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
+        </is>
+      </c>
       <c r="AD3" t="b">
         <v>0</v>
       </c>
@@ -892,30 +907,35 @@
       </c>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AH3" t="inlineStr">
+        <is>
+          <t>Rikkärr</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Britta Johansson</t>
         </is>
       </c>
       <c r="AX3" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Magnus Martinsson</t>
         </is>
       </c>
       <c r="AY3" t="inlineStr">
         <is>
-          <t>Ecogain</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>94011889</v>
+        <v>2289844</v>
       </c>
       <c r="B4" t="n">
-        <v>56887</v>
+        <v>96336</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -924,46 +944,41 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102995</v>
+        <v>219811</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Buskskvätta</t>
+          <t>Brudsporre</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Saxicola rubetra</t>
+          <t>Gymnadenia conopsea</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>spel/sång</t>
-        </is>
-      </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Ygne-Hemse, Gtl</t>
+          <t>06J1A05, Gtl</t>
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>698742.6195520113</v>
+        <v>698621.4564279296</v>
       </c>
       <c r="R4" t="n">
-        <v>6356963.322957435</v>
+        <v>6356902.266207782</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -987,7 +1002,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-07-09</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -997,7 +1012,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2021-05-24</t>
+          <t>2007-09-05</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1005,6 +1020,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
@@ -1013,30 +1033,35 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t>Rikkärr</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Britta Johansson</t>
         </is>
       </c>
       <c r="AX4" t="inlineStr">
         <is>
-          <t>Tony Svensson</t>
+          <t>Magnus Martinsson</t>
         </is>
       </c>
       <c r="AY4" t="inlineStr">
         <is>
-          <t>Ecogain</t>
+          <t>Åtgärdsprogram för hotade arter</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2999289</v>
+        <v>4095111</v>
       </c>
       <c r="B5" t="n">
-        <v>96319</v>
+        <v>95990</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,21 +1074,21 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>219799</v>
+        <v>221930</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kärrknipprot</t>
+          <t>Kärrlilja</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Epipactis palustris</t>
+          <t>Tofieldia calyculata</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(L.) Crantz</t>
+          <t>(L.) Wahlenb.</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1159,10 +1184,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5168355</v>
+        <v>3704166</v>
       </c>
       <c r="B6" t="n">
-        <v>97335</v>
+        <v>103164</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1171,20 +1196,20 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>222662</v>
+        <v>221137</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Axag</t>
+          <t>Majviva</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Schoenus ferrugineus</t>
+          <t>Primula farinosa</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -1285,10 +1310,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2289844</v>
+        <v>94011938</v>
       </c>
       <c r="B7" t="n">
-        <v>96336</v>
+        <v>98520</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,37 +1326,37 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>219811</v>
+        <v>222498</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Brudsporre</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Gymnadenia conopsea</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
-          <t>06J1A05, Gtl</t>
+          <t>Ygne-Hemse, Gtl</t>
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>698621.4564279296</v>
+        <v>698779.9316287825</v>
       </c>
       <c r="R7" t="n">
-        <v>6356902.266207782</v>
+        <v>6356965.133827931</v>
       </c>
       <c r="S7" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1355,7 +1380,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
@@ -1365,7 +1390,7 @@
       </c>
       <c r="AA7" t="inlineStr">
         <is>
-          <t>2007-09-05</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="AB7" t="inlineStr">
@@ -1373,11 +1398,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC7" t="inlineStr">
-        <is>
-          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
-        </is>
-      </c>
       <c r="AD7" t="b">
         <v>0</v>
       </c>
@@ -1386,35 +1406,30 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AH7" t="inlineStr">
-        <is>
-          <t>Rikkärr</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
         <is>
-          <t>Britta Johansson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX7" t="inlineStr">
         <is>
-          <t>Magnus Martinsson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY7" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Ecogain</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4095111</v>
+        <v>94011937</v>
       </c>
       <c r="B8" t="n">
-        <v>95990</v>
+        <v>98520</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1427,37 +1442,37 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>221930</v>
+        <v>222498</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Kärrlilja</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Tofieldia calyculata</t>
+          <t>Hepatica nobilis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) Wahlenb.</t>
+          <t>Schreb.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>06J1A05, Gtl</t>
+          <t>Ygne-Hemse, Gtl</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>698621.4564279296</v>
+        <v>698786.3346319427</v>
       </c>
       <c r="R8" t="n">
-        <v>6356902.266207782</v>
+        <v>6356944.887886292</v>
       </c>
       <c r="S8" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1481,7 +1496,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="Z8" t="inlineStr">
@@ -1491,7 +1506,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>2007-09-05</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -1499,11 +1514,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
-        </is>
-      </c>
       <c r="AD8" t="b">
         <v>0</v>
       </c>
@@ -1512,35 +1522,30 @@
       </c>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AH8" t="inlineStr">
-        <is>
-          <t>Rikkärr</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
         <is>
-          <t>Britta Johansson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX8" t="inlineStr">
         <is>
-          <t>Magnus Martinsson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY8" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Ecogain</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>3704166</v>
+        <v>94011889</v>
       </c>
       <c r="B9" t="n">
-        <v>103164</v>
+        <v>56887</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1553,37 +1558,42 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>221137</v>
+        <v>102995</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Majviva</t>
+          <t>Buskskvätta</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Primula farinosa</t>
+          <t>Saxicola rubetra</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>L.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>spel/sång</t>
+        </is>
+      </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>06J1A05, Gtl</t>
+          <t>Ygne-Hemse, Gtl</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>698621.4564279296</v>
+        <v>698742.6195520113</v>
       </c>
       <c r="R9" t="n">
-        <v>6356902.266207782</v>
+        <v>6356963.322957435</v>
       </c>
       <c r="S9" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1607,7 +1617,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>2007-07-09</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="Z9" t="inlineStr">
@@ -1617,7 +1627,7 @@
       </c>
       <c r="AA9" t="inlineStr">
         <is>
-          <t>2007-09-05</t>
+          <t>2021-05-24</t>
         </is>
       </c>
       <c r="AB9" t="inlineStr">
@@ -1625,11 +1635,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Lokalens storlek varierar starkt från 5 m i radie till flera hundra meter. Valde 50 m i denna rapportering.Mittkoordinater för varje rikkärrsobjekt, ej för varje observation.</t>
-        </is>
-      </c>
       <c r="AD9" t="b">
         <v>0</v>
       </c>
@@ -1638,26 +1643,21 @@
       </c>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AH9" t="inlineStr">
-        <is>
-          <t>Rikkärr</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
         <is>
-          <t>Britta Johansson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AX9" t="inlineStr">
         <is>
-          <t>Magnus Martinsson</t>
+          <t>Tony Svensson</t>
         </is>
       </c>
       <c r="AY9" t="inlineStr">
         <is>
-          <t>Åtgärdsprogram för hotade arter</t>
+          <t>Ecogain</t>
         </is>
       </c>
     </row>
